--- a/StarSeeker/operator/samples/servicepath.xlsx
+++ b/StarSeeker/operator/samples/servicepath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929EC2E5-3D55-4CA4-96E4-BE871C83D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5582D2-B96A-4754-8560-D0D05F0D3712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servicepath" sheetId="3" r:id="rId1"/>
@@ -20,35 +20,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>/park</t>
+    <t>#サービスパス</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>/facility</t>
+    <t>/public_facility</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>/natural</t>
+    <t>/flood_control</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>/artificial</t>
+    <t>112399_sakado_city</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>/organization</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>/area</t>
-  </si>
-  <si>
-    <t>/plan</t>
-  </si>
-  <si>
-    <t>#サービスパス</t>
+    <t>テナント名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1001,53 +994,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE7E1A7-62FD-4099-9B5E-18F99C0F2395}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/StarSeeker/operator/samples/servicepath.xlsx
+++ b/StarSeeker/operator/samples/servicepath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5582D2-B96A-4754-8560-D0D05F0D3712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B172F57E-2444-4860-9833-8EDDC90500EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servicepath" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>#サービスパス</t>
     <phoneticPr fontId="18"/>
@@ -42,6 +42,14 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>112399_sakado_city_flood_control</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>/government</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -994,19 +1002,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE7E1A7-62FD-4099-9B5E-18F99C0F2395}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" customWidth="1"/>
+    <col min="2" max="2" width="31.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1022,12 +1030,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/StarSeeker/operator/samples/servicepath.xlsx
+++ b/StarSeeker/operator/samples/servicepath.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B172F57E-2444-4860-9833-8EDDC90500EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B93C4-5AC3-4C26-A306-D864A5225364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>#サービスパス</t>
     <phoneticPr fontId="18"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>/government</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1002,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE7E1A7-62FD-4099-9B5E-18F99C0F2395}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1024,25 +1028,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/StarSeeker/operator/samples/servicepath.xlsx
+++ b/StarSeeker/operator/samples/servicepath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B93C4-5AC3-4C26-A306-D864A5225364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAA0A7C-22B9-404E-9249-14DE6958C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servicepath" sheetId="3" r:id="rId1"/>
@@ -20,13 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>#サービスパス</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>/public_facility</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -34,22 +30,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>112399_sakado_city</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>テナント名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>112399_sakado_city_flood_control</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>/government</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1006,72 +990,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE7E1A7-62FD-4099-9B5E-18F99C0F2395}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" customWidth="1"/>
-    <col min="2" max="2" width="31.19921875" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/StarSeeker/operator/samples/servicepath.xlsx
+++ b/StarSeeker/operator/samples/servicepath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\yuta\work\StarSeeker\StarSeeker\operator\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAA0A7C-22B9-404E-9249-14DE6958C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680D48FE-7825-46B1-B4DC-6F5643F7C558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="130" windowWidth="14400" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servicepath" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>#サービスパス</t>
     <phoneticPr fontId="18"/>
@@ -38,6 +38,22 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>government</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>/park</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>/inbound</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -990,19 +1006,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE7E1A7-62FD-4099-9B5E-18F99C0F2395}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1018,12 +1032,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
